--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1351.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1351.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.150350345972306</v>
+        <v>1.209367632865906</v>
       </c>
       <c r="B1">
-        <v>2.60783014368821</v>
+        <v>2.541895389556885</v>
       </c>
       <c r="C1">
-        <v>4.180874624496494</v>
+        <v>9.365715026855469</v>
       </c>
       <c r="D1">
-        <v>2.636722982938235</v>
+        <v>2.073488473892212</v>
       </c>
       <c r="E1">
-        <v>1.168459417041971</v>
+        <v>1.195730447769165</v>
       </c>
     </row>
   </sheetData>
